--- a/Code/Results/Cases/Case_3_90/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_90/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.99328489200549</v>
+        <v>1.030043486052588</v>
       </c>
       <c r="D2">
-        <v>1.016646436993424</v>
+        <v>1.038235764890015</v>
       </c>
       <c r="E2">
-        <v>1.000518367737786</v>
+        <v>1.029783288399635</v>
       </c>
       <c r="F2">
-        <v>1.023009334158284</v>
+        <v>1.048866835441596</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042435233534644</v>
+        <v>1.034516879654395</v>
       </c>
       <c r="J2">
-        <v>1.015668322798352</v>
+        <v>1.035186911996119</v>
       </c>
       <c r="K2">
-        <v>1.027878631305529</v>
+        <v>1.041024374512505</v>
       </c>
       <c r="L2">
-        <v>1.011970485594812</v>
+        <v>1.032596197995296</v>
       </c>
       <c r="M2">
-        <v>1.034157155756632</v>
+        <v>1.051625485104291</v>
       </c>
       <c r="N2">
-        <v>1.008805292862506</v>
+        <v>1.015662943936914</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.998580275128569</v>
+        <v>1.031154920382129</v>
       </c>
       <c r="D3">
-        <v>1.020501693232066</v>
+        <v>1.039062869347618</v>
       </c>
       <c r="E3">
-        <v>1.004803329736379</v>
+        <v>1.030732256047638</v>
       </c>
       <c r="F3">
-        <v>1.02745346043551</v>
+        <v>1.049842216381796</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043704775262216</v>
+        <v>1.034716855483951</v>
       </c>
       <c r="J3">
-        <v>1.019109718242533</v>
+        <v>1.035938806874932</v>
       </c>
       <c r="K3">
-        <v>1.030878802880541</v>
+        <v>1.041661405433761</v>
       </c>
       <c r="L3">
-        <v>1.015375117780544</v>
+        <v>1.03335300473807</v>
       </c>
       <c r="M3">
-        <v>1.037746717845767</v>
+        <v>1.05241257543662</v>
       </c>
       <c r="N3">
-        <v>1.009991443720242</v>
+        <v>1.015917664693764</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.001929868682362</v>
+        <v>1.031874282864299</v>
       </c>
       <c r="D4">
-        <v>1.02294324427217</v>
+        <v>1.039598050420317</v>
       </c>
       <c r="E4">
-        <v>1.007520167595024</v>
+        <v>1.03134680952913</v>
       </c>
       <c r="F4">
-        <v>1.030270048312262</v>
+        <v>1.050473653114986</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044497257805124</v>
+        <v>1.034844913805566</v>
       </c>
       <c r="J4">
-        <v>1.021284336721228</v>
+        <v>1.036424992957025</v>
       </c>
       <c r="K4">
-        <v>1.032772431220967</v>
+        <v>1.042072949941987</v>
       </c>
       <c r="L4">
-        <v>1.017528670280111</v>
+        <v>1.033842598905194</v>
       </c>
       <c r="M4">
-        <v>1.040016367448671</v>
+        <v>1.052921558163263</v>
       </c>
       <c r="N4">
-        <v>1.010740315335514</v>
+        <v>1.016082226324179</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.003320386613306</v>
+        <v>1.032176748833288</v>
       </c>
       <c r="D5">
-        <v>1.023957424740211</v>
+        <v>1.039823037416173</v>
       </c>
       <c r="E5">
-        <v>1.008649481920798</v>
+        <v>1.031605289118627</v>
       </c>
       <c r="F5">
-        <v>1.031440525878687</v>
+        <v>1.05073918043108</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044823655330719</v>
+        <v>1.034898428633439</v>
       </c>
       <c r="J5">
-        <v>1.022186502747302</v>
+        <v>1.036629304026625</v>
       </c>
       <c r="K5">
-        <v>1.033557480257888</v>
+        <v>1.042245805623348</v>
       </c>
       <c r="L5">
-        <v>1.018422613909738</v>
+        <v>1.03404839767394</v>
       </c>
       <c r="M5">
-        <v>1.040958270699128</v>
+        <v>1.053135458096509</v>
       </c>
       <c r="N5">
-        <v>1.011050827997467</v>
+        <v>1.016151345715803</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.003552846688033</v>
+        <v>1.032227536910216</v>
       </c>
       <c r="D6">
-        <v>1.024127004649097</v>
+        <v>1.039860813523768</v>
       </c>
       <c r="E6">
-        <v>1.008838360122887</v>
+        <v>1.031648696083804</v>
       </c>
       <c r="F6">
-        <v>1.031636270438024</v>
+        <v>1.050783767802657</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044878067405052</v>
+        <v>1.034907395184596</v>
       </c>
       <c r="J6">
-        <v>1.022337286815145</v>
+        <v>1.036663603968117</v>
       </c>
       <c r="K6">
-        <v>1.033688657245812</v>
+        <v>1.042274819600061</v>
       </c>
       <c r="L6">
-        <v>1.018572054063474</v>
+        <v>1.034082950626351</v>
       </c>
       <c r="M6">
-        <v>1.041115713951134</v>
+        <v>1.053171368343562</v>
       </c>
       <c r="N6">
-        <v>1.011102715763049</v>
+        <v>1.016162947507453</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.001948517244055</v>
+        <v>1.03187832424812</v>
       </c>
       <c r="D7">
-        <v>1.022956843342055</v>
+        <v>1.039601056720532</v>
       </c>
       <c r="E7">
-        <v>1.007535307351515</v>
+        <v>1.031350262869781</v>
       </c>
       <c r="F7">
-        <v>1.030285741120536</v>
+        <v>1.050477200824416</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044501645484819</v>
+        <v>1.034845630134485</v>
       </c>
       <c r="J7">
-        <v>1.021296438251097</v>
+        <v>1.036427723292157</v>
       </c>
       <c r="K7">
-        <v>1.032782963942184</v>
+        <v>1.042075260267843</v>
       </c>
       <c r="L7">
-        <v>1.017540659474673</v>
+        <v>1.033845348903245</v>
       </c>
       <c r="M7">
-        <v>1.04002900080457</v>
+        <v>1.052924416605402</v>
       </c>
       <c r="N7">
-        <v>1.010744481173821</v>
+        <v>1.016083150145911</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9950908758347846</v>
+        <v>1.030419061391095</v>
       </c>
       <c r="D8">
-        <v>1.017960606564687</v>
+        <v>1.038515290631527</v>
       </c>
       <c r="E8">
-        <v>1.001978370151034</v>
+        <v>1.030103891103034</v>
       </c>
       <c r="F8">
-        <v>1.024523800062626</v>
+        <v>1.049196407560367</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042870396321671</v>
+        <v>1.034584739616546</v>
       </c>
       <c r="J8">
-        <v>1.016842446090339</v>
+        <v>1.035441088756298</v>
       </c>
       <c r="K8">
-        <v>1.02890266415537</v>
+        <v>1.041239797958604</v>
       </c>
       <c r="L8">
-        <v>1.013131609679384</v>
+        <v>1.032851987123437</v>
       </c>
       <c r="M8">
-        <v>1.035381519411877</v>
+        <v>1.051891551417818</v>
       </c>
       <c r="N8">
-        <v>1.009210112993549</v>
+        <v>1.015749081706083</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9823818742803817</v>
+        <v>1.027849089284107</v>
       </c>
       <c r="D9">
-        <v>1.008728456296203</v>
+        <v>1.03660197252919</v>
       </c>
       <c r="E9">
-        <v>0.9917339462512823</v>
+        <v>1.027911527996984</v>
       </c>
       <c r="F9">
-        <v>1.01389315526243</v>
+        <v>1.046941806596325</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039765223141638</v>
+        <v>1.034114769023281</v>
       </c>
       <c r="J9">
-        <v>1.008572490320456</v>
+        <v>1.033699912105837</v>
       </c>
       <c r="K9">
-        <v>1.02168149010037</v>
+        <v>1.039762587844766</v>
       </c>
       <c r="L9">
-        <v>1.004962573358515</v>
+        <v>1.031100719156182</v>
       </c>
       <c r="M9">
-        <v>1.026764776643228</v>
+        <v>1.050069099119436</v>
       </c>
       <c r="N9">
-        <v>1.006356278003803</v>
+        <v>1.015158427109729</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9734343663303927</v>
+        <v>1.026136707818625</v>
       </c>
       <c r="D10">
-        <v>1.002253091234021</v>
+        <v>1.035326416447099</v>
       </c>
       <c r="E10">
-        <v>0.9845627504680956</v>
+        <v>1.026452591740838</v>
       </c>
       <c r="F10">
-        <v>1.006447487991358</v>
+        <v>1.045440327251693</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037526989144437</v>
+        <v>1.033794577779453</v>
       </c>
       <c r="J10">
-        <v>1.002743129141199</v>
+        <v>1.032537383390008</v>
       </c>
       <c r="K10">
-        <v>1.016581784235133</v>
+        <v>1.038774423383659</v>
       </c>
       <c r="L10">
-        <v>0.9992164375736531</v>
+        <v>1.029932652525826</v>
       </c>
       <c r="M10">
-        <v>1.020701298728931</v>
+        <v>1.048852532292011</v>
       </c>
       <c r="N10">
-        <v>1.004341866814534</v>
+        <v>1.014763331082775</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9694338637731229</v>
+        <v>1.025395441139985</v>
       </c>
       <c r="D11">
-        <v>0.9993651047869074</v>
+        <v>1.03477408955203</v>
       </c>
       <c r="E11">
-        <v>0.9813673267639934</v>
+        <v>1.02582148454435</v>
       </c>
       <c r="F11">
-        <v>1.003129154147757</v>
+        <v>1.044790551857529</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036514729356733</v>
+        <v>1.033654302570759</v>
       </c>
       <c r="J11">
-        <v>1.000135931039665</v>
+        <v>1.032033582004371</v>
       </c>
       <c r="K11">
-        <v>1.014299004241982</v>
+        <v>1.038345743718942</v>
       </c>
       <c r="L11">
-        <v>0.9966493953958127</v>
+        <v>1.029426736288028</v>
       </c>
       <c r="M11">
-        <v>1.017992299490781</v>
+        <v>1.048325370389272</v>
       </c>
       <c r="N11">
-        <v>1.003440376576315</v>
+        <v>1.014591936813993</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9679276774551963</v>
+        <v>1.025120131818025</v>
       </c>
       <c r="D12">
-        <v>0.9982789920117003</v>
+        <v>1.034568930707329</v>
       </c>
       <c r="E12">
-        <v>0.9801659872354238</v>
+        <v>1.025587156751573</v>
       </c>
       <c r="F12">
-        <v>1.001881548532554</v>
+        <v>1.044549253014011</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036131957894813</v>
+        <v>1.03360195332097</v>
       </c>
       <c r="J12">
-        <v>0.9991542720293292</v>
+        <v>1.031846384731316</v>
       </c>
       <c r="K12">
-        <v>1.013439238260302</v>
+        <v>1.038186393270039</v>
       </c>
       <c r="L12">
-        <v>0.995683302794571</v>
+        <v>1.029238796083545</v>
       </c>
       <c r="M12">
-        <v>1.016972789603559</v>
+        <v>1.048129502074421</v>
       </c>
       <c r="N12">
-        <v>1.003100878364857</v>
+        <v>1.014528226080694</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9682516961177932</v>
+        <v>1.02517918525149</v>
       </c>
       <c r="D13">
-        <v>0.9985125853361283</v>
+        <v>1.034612937972132</v>
       </c>
       <c r="E13">
-        <v>0.9804243455898797</v>
+        <v>1.025637416625034</v>
       </c>
       <c r="F13">
-        <v>1.002149858815791</v>
+        <v>1.044601009865542</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036214375248192</v>
+        <v>1.03361319348782</v>
       </c>
       <c r="J13">
-        <v>0.9993654526628862</v>
+        <v>1.031886542034464</v>
       </c>
       <c r="K13">
-        <v>1.013624207548789</v>
+        <v>1.038220579898157</v>
       </c>
       <c r="L13">
-        <v>0.9958911143885801</v>
+        <v>1.029279110818036</v>
       </c>
       <c r="M13">
-        <v>1.017192090600381</v>
+        <v>1.048171519064332</v>
       </c>
       <c r="N13">
-        <v>1.003173916340139</v>
+        <v>1.01454189438728</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9693097821596566</v>
+        <v>1.025372683375524</v>
       </c>
       <c r="D14">
-        <v>0.9992756039855675</v>
+        <v>1.034757131056733</v>
       </c>
       <c r="E14">
-        <v>0.9812683229754676</v>
+        <v>1.02580211302756</v>
       </c>
       <c r="F14">
-        <v>1.003026338474819</v>
+        <v>1.044770604861976</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036483229336045</v>
+        <v>1.033649980358298</v>
       </c>
       <c r="J14">
-        <v>1.000055061254224</v>
+        <v>1.032018109505219</v>
       </c>
       <c r="K14">
-        <v>1.014228181110522</v>
+        <v>1.038332574202832</v>
       </c>
       <c r="L14">
-        <v>0.996569798864925</v>
+        <v>1.029411201508025</v>
       </c>
       <c r="M14">
-        <v>1.017908301534862</v>
+        <v>1.048309181012848</v>
       </c>
       <c r="N14">
-        <v>1.003412409828751</v>
+        <v>1.014586671428823</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9699589846459218</v>
+        <v>1.025491907924552</v>
       </c>
       <c r="D15">
-        <v>0.9997439277382858</v>
+        <v>1.034845973180141</v>
       </c>
       <c r="E15">
-        <v>0.981786388062976</v>
+        <v>1.025903600312041</v>
       </c>
       <c r="F15">
-        <v>1.003564348192939</v>
+        <v>1.044875105455363</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036647972339435</v>
+        <v>1.033672613530288</v>
       </c>
       <c r="J15">
-        <v>1.000478175244344</v>
+        <v>1.032099164214559</v>
       </c>
       <c r="K15">
-        <v>1.014598720350919</v>
+        <v>1.0384015617286</v>
       </c>
       <c r="L15">
-        <v>0.996986269378954</v>
+        <v>1.029492584239978</v>
       </c>
       <c r="M15">
-        <v>1.018347802014721</v>
+        <v>1.048393991548617</v>
       </c>
       <c r="N15">
-        <v>1.003558730188915</v>
+        <v>1.014614253780136</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9736971026157164</v>
+        <v>1.026185907515063</v>
       </c>
       <c r="D16">
-        <v>1.002442922671752</v>
+        <v>1.035363072538186</v>
       </c>
       <c r="E16">
-        <v>0.9847728471210696</v>
+        <v>1.026494489356503</v>
       </c>
       <c r="F16">
-        <v>1.006665656047268</v>
+        <v>1.045483458634167</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037593236642818</v>
+        <v>1.033803853046784</v>
       </c>
       <c r="J16">
-        <v>1.002914347757281</v>
+        <v>1.032570810197857</v>
       </c>
       <c r="K16">
-        <v>1.016731660532274</v>
+        <v>1.038802856642123</v>
       </c>
       <c r="L16">
-        <v>0.9993850806066991</v>
+        <v>1.029966225661422</v>
       </c>
       <c r="M16">
-        <v>1.020879266753621</v>
+        <v>1.04888751029679</v>
       </c>
       <c r="N16">
-        <v>1.004401058718673</v>
+        <v>1.014774699323233</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9760072851297465</v>
+        <v>1.026621289661222</v>
       </c>
       <c r="D17">
-        <v>1.004112901698277</v>
+        <v>1.035687434838276</v>
       </c>
       <c r="E17">
-        <v>0.9866214276894415</v>
+        <v>1.026865304993372</v>
       </c>
       <c r="F17">
-        <v>1.008585189274835</v>
+        <v>1.045865163153343</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038174435843666</v>
+        <v>1.03388573975318</v>
       </c>
       <c r="J17">
-        <v>1.004419748362737</v>
+        <v>1.032866549079853</v>
       </c>
       <c r="K17">
-        <v>1.018049199117038</v>
+        <v>1.039054364813411</v>
       </c>
       <c r="L17">
-        <v>1.000868169774639</v>
+        <v>1.030263292084165</v>
       </c>
       <c r="M17">
-        <v>1.022444345069403</v>
+        <v>1.049196979887538</v>
       </c>
       <c r="N17">
-        <v>1.004921430068138</v>
+        <v>1.014875258264619</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9773426926859655</v>
+        <v>1.02687526061023</v>
       </c>
       <c r="D18">
-        <v>1.005078910460754</v>
+        <v>1.035876629596071</v>
       </c>
       <c r="E18">
-        <v>0.9876910273147069</v>
+        <v>1.027081655471748</v>
       </c>
       <c r="F18">
-        <v>1.009695782489298</v>
+        <v>1.046087841108955</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038509303451499</v>
+        <v>1.033933345575064</v>
       </c>
       <c r="J18">
-        <v>1.005289864348978</v>
+        <v>1.033039008166006</v>
       </c>
       <c r="K18">
-        <v>1.018810547425947</v>
+        <v>1.039200988275904</v>
       </c>
       <c r="L18">
-        <v>1.001725666968498</v>
+        <v>1.030436552811803</v>
       </c>
       <c r="M18">
-        <v>1.02334922685378</v>
+        <v>1.049377451540883</v>
       </c>
       <c r="N18">
-        <v>1.005222151030355</v>
+        <v>1.014933882188522</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9777960193869554</v>
+        <v>1.0269618615417</v>
       </c>
       <c r="D19">
-        <v>1.005406948852356</v>
+        <v>1.035941140060046</v>
       </c>
       <c r="E19">
-        <v>0.9880542915374065</v>
+        <v>1.02715543556644</v>
       </c>
       <c r="F19">
-        <v>1.010072958057149</v>
+        <v>1.046163774662217</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038622791800942</v>
+        <v>1.033949551243553</v>
       </c>
       <c r="J19">
-        <v>1.005585223331534</v>
+        <v>1.033097805407795</v>
       </c>
       <c r="K19">
-        <v>1.019068953291784</v>
+        <v>1.039250970022775</v>
       </c>
       <c r="L19">
-        <v>1.002016789363052</v>
+        <v>1.030495628022152</v>
       </c>
       <c r="M19">
-        <v>1.023656431994461</v>
+        <v>1.049438981474545</v>
       </c>
       <c r="N19">
-        <v>1.005324221015159</v>
+        <v>1.014953866272284</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9757606829944293</v>
+        <v>1.0265745752236</v>
       </c>
       <c r="D20">
-        <v>1.003934567841434</v>
+        <v>1.035652633859893</v>
       </c>
       <c r="E20">
-        <v>0.9864239927792681</v>
+        <v>1.026825513778934</v>
       </c>
       <c r="F20">
-        <v>1.008380182365988</v>
+        <v>1.045824206127471</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038112508567013</v>
+        <v>1.033876970354659</v>
       </c>
       <c r="J20">
-        <v>1.004259061574341</v>
+        <v>1.032834823275988</v>
       </c>
       <c r="K20">
-        <v>1.017908583649466</v>
+        <v>1.039027388330073</v>
       </c>
       <c r="L20">
-        <v>1.000709835705166</v>
+        <v>1.030231421022385</v>
       </c>
       <c r="M20">
-        <v>1.022277259714494</v>
+        <v>1.04916378052583</v>
       </c>
       <c r="N20">
-        <v>1.004865890813752</v>
+        <v>1.014864472386333</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9689987711170666</v>
+        <v>1.025315702175483</v>
       </c>
       <c r="D21">
-        <v>0.9990512898549188</v>
+        <v>1.034714669785543</v>
       </c>
       <c r="E21">
-        <v>0.9810201978933402</v>
+        <v>1.025753611459575</v>
       </c>
       <c r="F21">
-        <v>1.002768659177813</v>
+        <v>1.044720661795665</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036404248007338</v>
+        <v>1.033639154298142</v>
       </c>
       <c r="J21">
-        <v>0.9998523602742447</v>
+        <v>1.031979367904325</v>
       </c>
       <c r="K21">
-        <v>1.01405065815949</v>
+        <v>1.038299597975577</v>
       </c>
       <c r="L21">
-        <v>0.9963702965300962</v>
+        <v>1.029372304654929</v>
       </c>
       <c r="M21">
-        <v>1.01769776762655</v>
+        <v>1.048268644569242</v>
       </c>
       <c r="N21">
-        <v>1.003342309784422</v>
+        <v>1.01457348701049</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.96462958453036</v>
+        <v>1.024524372644134</v>
       </c>
       <c r="D22">
-        <v>0.9959031150121483</v>
+        <v>1.034124934470326</v>
       </c>
       <c r="E22">
-        <v>0.9775387280396292</v>
+        <v>1.02508020505387</v>
       </c>
       <c r="F22">
-        <v>0.9991530428452952</v>
+        <v>1.044027147702359</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035290842937834</v>
+        <v>1.033488213686438</v>
       </c>
       <c r="J22">
-        <v>0.9970047301633641</v>
+        <v>1.031441144578078</v>
       </c>
       <c r="K22">
-        <v>1.011556171240249</v>
+        <v>1.037841314619137</v>
       </c>
       <c r="L22">
-        <v>0.9935686768304832</v>
+        <v>1.028832026137056</v>
       </c>
       <c r="M22">
-        <v>1.014741296814835</v>
+        <v>1.047705507909204</v>
       </c>
       <c r="N22">
-        <v>1.002357361099916</v>
+        <v>1.01439025949554</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9669573817581815</v>
+        <v>1.024943855179106</v>
       </c>
       <c r="D23">
-        <v>0.9975796691851336</v>
+        <v>1.03443756420591</v>
       </c>
       <c r="E23">
-        <v>0.9793925782253737</v>
+        <v>1.025437139205962</v>
       </c>
       <c r="F23">
-        <v>1.001078342295403</v>
+        <v>1.044394761445379</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035884916881518</v>
+        <v>1.033568364354554</v>
       </c>
       <c r="J23">
-        <v>0.9985218760766333</v>
+        <v>1.031726501534795</v>
       </c>
       <c r="K23">
-        <v>1.012885299108802</v>
+        <v>1.038084324906375</v>
       </c>
       <c r="L23">
-        <v>0.9950610617022762</v>
+        <v>1.029118449184205</v>
       </c>
       <c r="M23">
-        <v>1.016316150272385</v>
+        <v>1.048004068426393</v>
       </c>
       <c r="N23">
-        <v>1.002882151332992</v>
+        <v>1.014487417766631</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9758721491308382</v>
+        <v>1.026595683405355</v>
       </c>
       <c r="D24">
-        <v>1.004015174093446</v>
+        <v>1.035668358924851</v>
       </c>
       <c r="E24">
-        <v>0.98651323177302</v>
+        <v>1.026843493530475</v>
       </c>
       <c r="F24">
-        <v>1.008472844031046</v>
+        <v>1.045842712732656</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038140503597302</v>
+        <v>1.033880933354401</v>
       </c>
       <c r="J24">
-        <v>1.004331693556858</v>
+        <v>1.032849158925829</v>
       </c>
       <c r="K24">
-        <v>1.017972143774447</v>
+        <v>1.03903957807953</v>
       </c>
       <c r="L24">
-        <v>1.000781403376721</v>
+        <v>1.030245822223663</v>
       </c>
       <c r="M24">
-        <v>1.022352783069397</v>
+        <v>1.049178782001722</v>
       </c>
       <c r="N24">
-        <v>1.004890995255273</v>
+        <v>1.014869346154374</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9857468846093602</v>
+        <v>1.028513321854528</v>
       </c>
       <c r="D25">
-        <v>1.011169149100475</v>
+        <v>1.037096615144163</v>
       </c>
       <c r="E25">
-        <v>0.9944396687789857</v>
+        <v>1.028477842328197</v>
       </c>
       <c r="F25">
-        <v>1.016701707283413</v>
+        <v>1.047524397133343</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040596603433644</v>
+        <v>1.034237480832515</v>
       </c>
       <c r="J25">
-        <v>1.010763631635807</v>
+        <v>1.034150355752328</v>
       </c>
       <c r="K25">
-        <v>1.02359651783975</v>
+        <v>1.040145075102682</v>
       </c>
       <c r="L25">
-        <v>1.007124919371304</v>
+        <v>1.031553562285126</v>
       </c>
       <c r="M25">
-        <v>1.029046167511682</v>
+        <v>1.050540530170317</v>
       </c>
       <c r="N25">
-        <v>1.007112924778977</v>
+        <v>1.015311359772478</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_90/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_90/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.030043486052588</v>
+        <v>0.9932848920054902</v>
       </c>
       <c r="D2">
-        <v>1.038235764890015</v>
+        <v>1.016646436993424</v>
       </c>
       <c r="E2">
-        <v>1.029783288399635</v>
+        <v>1.000518367737787</v>
       </c>
       <c r="F2">
-        <v>1.048866835441596</v>
+        <v>1.023009334158285</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034516879654395</v>
+        <v>1.042435233534644</v>
       </c>
       <c r="J2">
-        <v>1.035186911996119</v>
+        <v>1.015668322798352</v>
       </c>
       <c r="K2">
-        <v>1.041024374512505</v>
+        <v>1.02787863130553</v>
       </c>
       <c r="L2">
-        <v>1.032596197995296</v>
+        <v>1.011970485594812</v>
       </c>
       <c r="M2">
-        <v>1.051625485104291</v>
+        <v>1.034157155756632</v>
       </c>
       <c r="N2">
-        <v>1.015662943936914</v>
+        <v>1.008805292862506</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031154920382129</v>
+        <v>0.9985802751285672</v>
       </c>
       <c r="D3">
-        <v>1.039062869347618</v>
+        <v>1.020501693232065</v>
       </c>
       <c r="E3">
-        <v>1.030732256047638</v>
+        <v>1.004803329736377</v>
       </c>
       <c r="F3">
-        <v>1.049842216381796</v>
+        <v>1.027453460435509</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034716855483951</v>
+        <v>1.043704775262215</v>
       </c>
       <c r="J3">
-        <v>1.035938806874932</v>
+        <v>1.019109718242531</v>
       </c>
       <c r="K3">
-        <v>1.041661405433761</v>
+        <v>1.03087880288054</v>
       </c>
       <c r="L3">
-        <v>1.03335300473807</v>
+        <v>1.015375117780543</v>
       </c>
       <c r="M3">
-        <v>1.05241257543662</v>
+        <v>1.037746717845766</v>
       </c>
       <c r="N3">
-        <v>1.015917664693764</v>
+        <v>1.009991443720242</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.031874282864299</v>
+        <v>1.001929868682363</v>
       </c>
       <c r="D4">
-        <v>1.039598050420317</v>
+        <v>1.022943244272172</v>
       </c>
       <c r="E4">
-        <v>1.03134680952913</v>
+        <v>1.007520167595025</v>
       </c>
       <c r="F4">
-        <v>1.050473653114986</v>
+        <v>1.030270048312263</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034844913805566</v>
+        <v>1.044497257805125</v>
       </c>
       <c r="J4">
-        <v>1.036424992957025</v>
+        <v>1.021284336721229</v>
       </c>
       <c r="K4">
-        <v>1.042072949941987</v>
+        <v>1.032772431220968</v>
       </c>
       <c r="L4">
-        <v>1.033842598905194</v>
+        <v>1.017528670280112</v>
       </c>
       <c r="M4">
-        <v>1.052921558163263</v>
+        <v>1.040016367448672</v>
       </c>
       <c r="N4">
-        <v>1.016082226324179</v>
+        <v>1.010740315335514</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032176748833288</v>
+        <v>1.003320386613307</v>
       </c>
       <c r="D5">
-        <v>1.039823037416173</v>
+        <v>1.023957424740211</v>
       </c>
       <c r="E5">
-        <v>1.031605289118627</v>
+        <v>1.008649481920799</v>
       </c>
       <c r="F5">
-        <v>1.05073918043108</v>
+        <v>1.031440525878687</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034898428633439</v>
+        <v>1.044823655330719</v>
       </c>
       <c r="J5">
-        <v>1.036629304026625</v>
+        <v>1.022186502747302</v>
       </c>
       <c r="K5">
-        <v>1.042245805623348</v>
+        <v>1.033557480257888</v>
       </c>
       <c r="L5">
-        <v>1.03404839767394</v>
+        <v>1.018422613909739</v>
       </c>
       <c r="M5">
-        <v>1.053135458096509</v>
+        <v>1.040958270699128</v>
       </c>
       <c r="N5">
-        <v>1.016151345715803</v>
+        <v>1.011050827997467</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032227536910216</v>
+        <v>1.003552846688032</v>
       </c>
       <c r="D6">
-        <v>1.039860813523768</v>
+        <v>1.024127004649096</v>
       </c>
       <c r="E6">
-        <v>1.031648696083804</v>
+        <v>1.008838360122885</v>
       </c>
       <c r="F6">
-        <v>1.050783767802657</v>
+        <v>1.031636270438023</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034907395184596</v>
+        <v>1.044878067405052</v>
       </c>
       <c r="J6">
-        <v>1.036663603968117</v>
+        <v>1.022337286815144</v>
       </c>
       <c r="K6">
-        <v>1.042274819600061</v>
+        <v>1.033688657245811</v>
       </c>
       <c r="L6">
-        <v>1.034082950626351</v>
+        <v>1.018572054063472</v>
       </c>
       <c r="M6">
-        <v>1.053171368343562</v>
+        <v>1.041115713951132</v>
       </c>
       <c r="N6">
-        <v>1.016162947507453</v>
+        <v>1.011102715763049</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.03187832424812</v>
+        <v>1.001948517244055</v>
       </c>
       <c r="D7">
-        <v>1.039601056720532</v>
+        <v>1.022956843342055</v>
       </c>
       <c r="E7">
-        <v>1.031350262869781</v>
+        <v>1.007535307351515</v>
       </c>
       <c r="F7">
-        <v>1.050477200824416</v>
+        <v>1.030285741120537</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034845630134485</v>
+        <v>1.044501645484819</v>
       </c>
       <c r="J7">
-        <v>1.036427723292157</v>
+        <v>1.021296438251097</v>
       </c>
       <c r="K7">
-        <v>1.042075260267843</v>
+        <v>1.032782963942184</v>
       </c>
       <c r="L7">
-        <v>1.033845348903245</v>
+        <v>1.017540659474674</v>
       </c>
       <c r="M7">
-        <v>1.052924416605402</v>
+        <v>1.04002900080457</v>
       </c>
       <c r="N7">
-        <v>1.016083150145911</v>
+        <v>1.010744481173821</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030419061391095</v>
+        <v>0.9950908758347844</v>
       </c>
       <c r="D8">
-        <v>1.038515290631527</v>
+        <v>1.017960606564687</v>
       </c>
       <c r="E8">
-        <v>1.030103891103034</v>
+        <v>1.001978370151033</v>
       </c>
       <c r="F8">
-        <v>1.049196407560367</v>
+        <v>1.024523800062626</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034584739616546</v>
+        <v>1.042870396321671</v>
       </c>
       <c r="J8">
-        <v>1.035441088756298</v>
+        <v>1.016842446090338</v>
       </c>
       <c r="K8">
-        <v>1.041239797958604</v>
+        <v>1.02890266415537</v>
       </c>
       <c r="L8">
-        <v>1.032851987123437</v>
+        <v>1.013131609679384</v>
       </c>
       <c r="M8">
-        <v>1.051891551417818</v>
+        <v>1.035381519411877</v>
       </c>
       <c r="N8">
-        <v>1.015749081706083</v>
+        <v>1.009210112993549</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.027849089284107</v>
+        <v>0.9823818742803818</v>
       </c>
       <c r="D9">
-        <v>1.03660197252919</v>
+        <v>1.008728456296203</v>
       </c>
       <c r="E9">
-        <v>1.027911527996984</v>
+        <v>0.991733946251282</v>
       </c>
       <c r="F9">
-        <v>1.046941806596325</v>
+        <v>1.01389315526243</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034114769023281</v>
+        <v>1.039765223141638</v>
       </c>
       <c r="J9">
-        <v>1.033699912105837</v>
+        <v>1.008572490320456</v>
       </c>
       <c r="K9">
-        <v>1.039762587844766</v>
+        <v>1.02168149010037</v>
       </c>
       <c r="L9">
-        <v>1.031100719156182</v>
+        <v>1.004962573358515</v>
       </c>
       <c r="M9">
-        <v>1.050069099119436</v>
+        <v>1.026764776643228</v>
       </c>
       <c r="N9">
-        <v>1.015158427109729</v>
+        <v>1.006356278003803</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.026136707818625</v>
+        <v>0.9734343663303927</v>
       </c>
       <c r="D10">
-        <v>1.035326416447099</v>
+        <v>1.002253091234021</v>
       </c>
       <c r="E10">
-        <v>1.026452591740838</v>
+        <v>0.9845627504680957</v>
       </c>
       <c r="F10">
-        <v>1.045440327251693</v>
+        <v>1.006447487991357</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033794577779453</v>
+        <v>1.037526989144437</v>
       </c>
       <c r="J10">
-        <v>1.032537383390008</v>
+        <v>1.002743129141199</v>
       </c>
       <c r="K10">
-        <v>1.038774423383659</v>
+        <v>1.016581784235133</v>
       </c>
       <c r="L10">
-        <v>1.029932652525826</v>
+        <v>0.9992164375736532</v>
       </c>
       <c r="M10">
-        <v>1.048852532292011</v>
+        <v>1.020701298728931</v>
       </c>
       <c r="N10">
-        <v>1.014763331082775</v>
+        <v>1.004341866814534</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.025395441139985</v>
+        <v>0.9694338637731222</v>
       </c>
       <c r="D11">
-        <v>1.03477408955203</v>
+        <v>0.9993651047869071</v>
       </c>
       <c r="E11">
-        <v>1.02582148454435</v>
+        <v>0.9813673267639931</v>
       </c>
       <c r="F11">
-        <v>1.044790551857529</v>
+        <v>1.003129154147756</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033654302570759</v>
+        <v>1.036514729356733</v>
       </c>
       <c r="J11">
-        <v>1.032033582004371</v>
+        <v>1.000135931039665</v>
       </c>
       <c r="K11">
-        <v>1.038345743718942</v>
+        <v>1.014299004241982</v>
       </c>
       <c r="L11">
-        <v>1.029426736288028</v>
+        <v>0.9966493953958123</v>
       </c>
       <c r="M11">
-        <v>1.048325370389272</v>
+        <v>1.01799229949078</v>
       </c>
       <c r="N11">
-        <v>1.014591936813993</v>
+        <v>1.003440376576315</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.025120131818025</v>
+        <v>0.967927677455197</v>
       </c>
       <c r="D12">
-        <v>1.034568930707329</v>
+        <v>0.998278992011701</v>
       </c>
       <c r="E12">
-        <v>1.025587156751573</v>
+        <v>0.9801659872354244</v>
       </c>
       <c r="F12">
-        <v>1.044549253014011</v>
+        <v>1.001881548532555</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03360195332097</v>
+        <v>1.036131957894813</v>
       </c>
       <c r="J12">
-        <v>1.031846384731316</v>
+        <v>0.9991542720293298</v>
       </c>
       <c r="K12">
-        <v>1.038186393270039</v>
+        <v>1.013439238260303</v>
       </c>
       <c r="L12">
-        <v>1.029238796083545</v>
+        <v>0.9956833027945715</v>
       </c>
       <c r="M12">
-        <v>1.048129502074421</v>
+        <v>1.016972789603559</v>
       </c>
       <c r="N12">
-        <v>1.014528226080694</v>
+        <v>1.003100878364857</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.02517918525149</v>
+        <v>0.9682516961177927</v>
       </c>
       <c r="D13">
-        <v>1.034612937972132</v>
+        <v>0.9985125853361279</v>
       </c>
       <c r="E13">
-        <v>1.025637416625034</v>
+        <v>0.9804243455898793</v>
       </c>
       <c r="F13">
-        <v>1.044601009865542</v>
+        <v>1.00214985881579</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03361319348782</v>
+        <v>1.036214375248192</v>
       </c>
       <c r="J13">
-        <v>1.031886542034464</v>
+        <v>0.9993654526628858</v>
       </c>
       <c r="K13">
-        <v>1.038220579898157</v>
+        <v>1.013624207548788</v>
       </c>
       <c r="L13">
-        <v>1.029279110818036</v>
+        <v>0.9958911143885799</v>
       </c>
       <c r="M13">
-        <v>1.048171519064332</v>
+        <v>1.01719209060038</v>
       </c>
       <c r="N13">
-        <v>1.01454189438728</v>
+        <v>1.003173916340139</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.025372683375524</v>
+        <v>0.9693097821596564</v>
       </c>
       <c r="D14">
-        <v>1.034757131056733</v>
+        <v>0.9992756039855677</v>
       </c>
       <c r="E14">
-        <v>1.02580211302756</v>
+        <v>0.9812683229754672</v>
       </c>
       <c r="F14">
-        <v>1.044770604861976</v>
+        <v>1.003026338474819</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033649980358298</v>
+        <v>1.036483229336045</v>
       </c>
       <c r="J14">
-        <v>1.032018109505219</v>
+        <v>1.000055061254224</v>
       </c>
       <c r="K14">
-        <v>1.038332574202832</v>
+        <v>1.014228181110522</v>
       </c>
       <c r="L14">
-        <v>1.029411201508025</v>
+        <v>0.9965697988649248</v>
       </c>
       <c r="M14">
-        <v>1.048309181012848</v>
+        <v>1.017908301534862</v>
       </c>
       <c r="N14">
-        <v>1.014586671428823</v>
+        <v>1.003412409828751</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.025491907924552</v>
+        <v>0.9699589846459218</v>
       </c>
       <c r="D15">
-        <v>1.034845973180141</v>
+        <v>0.9997439277382857</v>
       </c>
       <c r="E15">
-        <v>1.025903600312041</v>
+        <v>0.9817863880629762</v>
       </c>
       <c r="F15">
-        <v>1.044875105455363</v>
+        <v>1.003564348192939</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033672613530288</v>
+        <v>1.036647972339435</v>
       </c>
       <c r="J15">
-        <v>1.032099164214559</v>
+        <v>1.000478175244344</v>
       </c>
       <c r="K15">
-        <v>1.0384015617286</v>
+        <v>1.014598720350919</v>
       </c>
       <c r="L15">
-        <v>1.029492584239978</v>
+        <v>0.9969862693789541</v>
       </c>
       <c r="M15">
-        <v>1.048393991548617</v>
+        <v>1.018347802014721</v>
       </c>
       <c r="N15">
-        <v>1.014614253780136</v>
+        <v>1.003558730188915</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.026185907515063</v>
+        <v>0.9736971026157168</v>
       </c>
       <c r="D16">
-        <v>1.035363072538186</v>
+        <v>1.002442922671753</v>
       </c>
       <c r="E16">
-        <v>1.026494489356503</v>
+        <v>0.9847728471210707</v>
       </c>
       <c r="F16">
-        <v>1.045483458634167</v>
+        <v>1.006665656047269</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033803853046784</v>
+        <v>1.037593236642818</v>
       </c>
       <c r="J16">
-        <v>1.032570810197857</v>
+        <v>1.002914347757282</v>
       </c>
       <c r="K16">
-        <v>1.038802856642123</v>
+        <v>1.016731660532275</v>
       </c>
       <c r="L16">
-        <v>1.029966225661422</v>
+        <v>0.9993850806067001</v>
       </c>
       <c r="M16">
-        <v>1.04888751029679</v>
+        <v>1.020879266753621</v>
       </c>
       <c r="N16">
-        <v>1.014774699323233</v>
+        <v>1.004401058718673</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C17">
-        <v>1.026621289661222</v>
+        <v>0.9760072851297468</v>
       </c>
       <c r="D17">
-        <v>1.035687434838276</v>
+        <v>1.004112901698276</v>
       </c>
       <c r="E17">
-        <v>1.026865304993372</v>
+        <v>0.9866214276894414</v>
       </c>
       <c r="F17">
-        <v>1.045865163153343</v>
+        <v>1.008585189274836</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03388573975318</v>
+        <v>1.038174435843666</v>
       </c>
       <c r="J17">
-        <v>1.032866549079853</v>
+        <v>1.004419748362737</v>
       </c>
       <c r="K17">
-        <v>1.039054364813411</v>
+        <v>1.018049199117038</v>
       </c>
       <c r="L17">
-        <v>1.030263292084165</v>
+        <v>1.000868169774638</v>
       </c>
       <c r="M17">
-        <v>1.049196979887538</v>
+        <v>1.022444345069404</v>
       </c>
       <c r="N17">
-        <v>1.014875258264619</v>
+        <v>1.004921430068138</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.02687526061023</v>
+        <v>0.9773426926859657</v>
       </c>
       <c r="D18">
-        <v>1.035876629596071</v>
+        <v>1.005078910460754</v>
       </c>
       <c r="E18">
-        <v>1.027081655471748</v>
+        <v>0.9876910273147065</v>
       </c>
       <c r="F18">
-        <v>1.046087841108955</v>
+        <v>1.009695782489298</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033933345575064</v>
+        <v>1.038509303451499</v>
       </c>
       <c r="J18">
-        <v>1.033039008166006</v>
+        <v>1.005289864348978</v>
       </c>
       <c r="K18">
-        <v>1.039200988275904</v>
+        <v>1.018810547425947</v>
       </c>
       <c r="L18">
-        <v>1.030436552811803</v>
+        <v>1.001725666968498</v>
       </c>
       <c r="M18">
-        <v>1.049377451540883</v>
+        <v>1.02334922685378</v>
       </c>
       <c r="N18">
-        <v>1.014933882188522</v>
+        <v>1.005222151030355</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.0269618615417</v>
+        <v>0.9777960193869554</v>
       </c>
       <c r="D19">
-        <v>1.035941140060046</v>
+        <v>1.005406948852356</v>
       </c>
       <c r="E19">
-        <v>1.02715543556644</v>
+        <v>0.9880542915374065</v>
       </c>
       <c r="F19">
-        <v>1.046163774662217</v>
+        <v>1.010072958057149</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033949551243553</v>
+        <v>1.038622791800942</v>
       </c>
       <c r="J19">
-        <v>1.033097805407795</v>
+        <v>1.005585223331534</v>
       </c>
       <c r="K19">
-        <v>1.039250970022775</v>
+        <v>1.019068953291784</v>
       </c>
       <c r="L19">
-        <v>1.030495628022152</v>
+        <v>1.002016789363052</v>
       </c>
       <c r="M19">
-        <v>1.049438981474545</v>
+        <v>1.023656431994461</v>
       </c>
       <c r="N19">
-        <v>1.014953866272284</v>
+        <v>1.005324221015159</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.0265745752236</v>
+        <v>0.9757606829944282</v>
       </c>
       <c r="D20">
-        <v>1.035652633859893</v>
+        <v>1.003934567841434</v>
       </c>
       <c r="E20">
-        <v>1.026825513778934</v>
+        <v>0.9864239927792666</v>
       </c>
       <c r="F20">
-        <v>1.045824206127471</v>
+        <v>1.008380182365988</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033876970354659</v>
+        <v>1.038112508567013</v>
       </c>
       <c r="J20">
-        <v>1.032834823275988</v>
+        <v>1.00425906157434</v>
       </c>
       <c r="K20">
-        <v>1.039027388330073</v>
+        <v>1.017908583649465</v>
       </c>
       <c r="L20">
-        <v>1.030231421022385</v>
+        <v>1.000709835705165</v>
       </c>
       <c r="M20">
-        <v>1.04916378052583</v>
+        <v>1.022277259714494</v>
       </c>
       <c r="N20">
-        <v>1.014864472386333</v>
+        <v>1.004865890813751</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.025315702175483</v>
+        <v>0.9689987711170664</v>
       </c>
       <c r="D21">
-        <v>1.034714669785543</v>
+        <v>0.9990512898549191</v>
       </c>
       <c r="E21">
-        <v>1.025753611459575</v>
+        <v>0.9810201978933401</v>
       </c>
       <c r="F21">
-        <v>1.044720661795665</v>
+        <v>1.002768659177814</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033639154298142</v>
+        <v>1.036404248007338</v>
       </c>
       <c r="J21">
-        <v>1.031979367904325</v>
+        <v>0.9998523602742446</v>
       </c>
       <c r="K21">
-        <v>1.038299597975577</v>
+        <v>1.01405065815949</v>
       </c>
       <c r="L21">
-        <v>1.029372304654929</v>
+        <v>0.9963702965300962</v>
       </c>
       <c r="M21">
-        <v>1.048268644569242</v>
+        <v>1.017697767626551</v>
       </c>
       <c r="N21">
-        <v>1.01457348701049</v>
+        <v>1.003342309784421</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.024524372644134</v>
+        <v>0.9646295845303605</v>
       </c>
       <c r="D22">
-        <v>1.034124934470326</v>
+        <v>0.9959031150121489</v>
       </c>
       <c r="E22">
-        <v>1.02508020505387</v>
+        <v>0.9775387280396297</v>
       </c>
       <c r="F22">
-        <v>1.044027147702359</v>
+        <v>0.9991530428452959</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033488213686438</v>
+        <v>1.035290842937835</v>
       </c>
       <c r="J22">
-        <v>1.031441144578078</v>
+        <v>0.9970047301633647</v>
       </c>
       <c r="K22">
-        <v>1.037841314619137</v>
+        <v>1.011556171240249</v>
       </c>
       <c r="L22">
-        <v>1.028832026137056</v>
+        <v>0.9935686768304837</v>
       </c>
       <c r="M22">
-        <v>1.047705507909204</v>
+        <v>1.014741296814835</v>
       </c>
       <c r="N22">
-        <v>1.01439025949554</v>
+        <v>1.002357361099916</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.024943855179106</v>
+        <v>0.9669573817581802</v>
       </c>
       <c r="D23">
-        <v>1.03443756420591</v>
+        <v>0.9975796691851326</v>
       </c>
       <c r="E23">
-        <v>1.025437139205962</v>
+        <v>0.9793925782253723</v>
       </c>
       <c r="F23">
-        <v>1.044394761445379</v>
+        <v>1.001078342295401</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033568364354554</v>
+        <v>1.035884916881518</v>
       </c>
       <c r="J23">
-        <v>1.031726501534795</v>
+        <v>0.9985218760766321</v>
       </c>
       <c r="K23">
-        <v>1.038084324906375</v>
+        <v>1.0128852991088</v>
       </c>
       <c r="L23">
-        <v>1.029118449184205</v>
+        <v>0.9950610617022749</v>
       </c>
       <c r="M23">
-        <v>1.048004068426393</v>
+        <v>1.016316150272383</v>
       </c>
       <c r="N23">
-        <v>1.014487417766631</v>
+        <v>1.002882151332992</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C24">
-        <v>1.026595683405355</v>
+        <v>0.9758721491308372</v>
       </c>
       <c r="D24">
-        <v>1.035668358924851</v>
+        <v>1.004015174093446</v>
       </c>
       <c r="E24">
-        <v>1.026843493530475</v>
+        <v>0.986513231773019</v>
       </c>
       <c r="F24">
-        <v>1.045842712732656</v>
+        <v>1.008472844031046</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033880933354401</v>
+        <v>1.038140503597302</v>
       </c>
       <c r="J24">
-        <v>1.032849158925829</v>
+        <v>1.004331693556857</v>
       </c>
       <c r="K24">
-        <v>1.03903957807953</v>
+        <v>1.017972143774446</v>
       </c>
       <c r="L24">
-        <v>1.030245822223663</v>
+        <v>1.00078140337672</v>
       </c>
       <c r="M24">
-        <v>1.049178782001722</v>
+        <v>1.022352783069397</v>
       </c>
       <c r="N24">
-        <v>1.014869346154374</v>
+        <v>1.004890995255273</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.028513321854528</v>
+        <v>0.9857468846093602</v>
       </c>
       <c r="D25">
-        <v>1.037096615144163</v>
+        <v>1.011169149100475</v>
       </c>
       <c r="E25">
-        <v>1.028477842328197</v>
+        <v>0.9944396687789856</v>
       </c>
       <c r="F25">
-        <v>1.047524397133343</v>
+        <v>1.016701707283412</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034237480832515</v>
+        <v>1.040596603433644</v>
       </c>
       <c r="J25">
-        <v>1.034150355752328</v>
+        <v>1.010763631635807</v>
       </c>
       <c r="K25">
-        <v>1.040145075102682</v>
+        <v>1.02359651783975</v>
       </c>
       <c r="L25">
-        <v>1.031553562285126</v>
+        <v>1.007124919371304</v>
       </c>
       <c r="M25">
-        <v>1.050540530170317</v>
+        <v>1.029046167511682</v>
       </c>
       <c r="N25">
-        <v>1.015311359772478</v>
+        <v>1.007112924778977</v>
       </c>
     </row>
   </sheetData>
